--- a/biology/Zoologie/Baeotus/Baeotus.xlsx
+++ b/biology/Zoologie/Baeotus/Baeotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotus est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae présents en Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Baeotus a été décrit par l'entomologiste britannique Arthur Francis Hemming en 1939[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Baeotus a été décrit par l'entomologiste britannique Arthur Francis Hemming en 1939.
 L'espèce type est Baeotus baeotus (Doubleday, 1849), protonyme Megistanis baeotus.</t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste d'espèces[2] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste d'espèces 
 Baeotus aeilus (Stoll, 1780)
-Baeotus baeotus (Doubleday, [1849])
-Baeotus deucalion (Staudinger, [1885])
-Baeotus japetus (Staudinger, [1885]), synonyme Baeotus hahneli.
+Baeotus baeotus (Doubleday, )
+Baeotus deucalion (Staudinger, )
+Baeotus japetus (Staudinger, ), synonyme Baeotus hahneli.
 			Baeotus aeilus - MHNT
 </t>
         </is>
